--- a/regions/9/vachroba/vachroba.xlsx
+++ b/regions/9/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="5490" windowWidth="23820" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,9 +108,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -128,25 +143,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -205,24 +201,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,39 +520,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="85.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="73.28515625" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -583,9 +574,10 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" s="6" customFormat="1">
-      <c r="A3" s="13"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2006</v>
       </c>
@@ -631,118 +623,133 @@
       <c r="P3" s="4">
         <v>2020</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="Q3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2022</v>
+      </c>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1">
-      <c r="A4" s="14" t="s">
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" s="6" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>87.7</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>94</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>92.6</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>102.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>117.6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>257.8</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>288.8</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>412.2</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>433.7</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>488.2</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>513.70000000000005</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>579.44473000000005</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="8">
         <v>671.7</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <v>858.3</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="8">
         <v>1066.0999999999999</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="8">
+        <v>1045.8</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1091.4000000000001</v>
+      </c>
       <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>10.1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>13.3</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>12.6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>14.7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>18.7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>32.1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>36.9</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>52.4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>52.1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>62.3</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>69</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>90.973510000000005</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="8">
         <v>89.3</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <v>139.5</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>160.1</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="Q5" s="8">
+        <v>162.1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>165.5</v>
+      </c>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1">
-      <c r="A6" s="14" t="s">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8">
@@ -790,12 +797,17 @@
       <c r="P6" s="8">
         <v>6502</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="8">
+        <v>7086</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7103</v>
+      </c>
       <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1">
-      <c r="A7" s="14" t="s">
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" s="6" customFormat="1">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8">
@@ -843,383 +855,423 @@
       <c r="P7" s="8">
         <v>4029</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="8">
+        <v>4226</v>
+      </c>
+      <c r="R7" s="8">
+        <v>4338</v>
+      </c>
       <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1">
-      <c r="A8" s="14" t="s">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>117</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>120.6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>158.9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>176.1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>214.4</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>164.7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>231.4</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>258.2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>295.39999999999998</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>312.39999999999998</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>345.7</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>401.75942500000002</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="8">
         <v>452.1</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>475.4</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>585.79999999999995</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="8">
+        <v>591.70000000000005</v>
+      </c>
+      <c r="R8" s="8">
+        <v>670.6</v>
+      </c>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1">
-      <c r="A9" s="14" t="s">
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>2.6</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>2.4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>2.5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>3.7</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>3.7</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>6.6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>11.5</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>12.3</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>15.4</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>23.1</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>17.139569999999999</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="8">
         <v>22.9</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>37.200000000000003</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>31.7</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="8">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="R9" s="8">
+        <v>41.8</v>
+      </c>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1">
-      <c r="A10" s="14" t="s">
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" s="6" customFormat="1">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>2.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>2.7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>2.8</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>3.7</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>5.9</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>7.9</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>10.8</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>12.9</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>12.7</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>14</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>19.143820000000002</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="8">
         <v>21.4</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <v>25.4</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>28.7</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="Q10" s="8">
+        <v>30.5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>35.4</v>
+      </c>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1">
-      <c r="A11" s="14" t="s">
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" s="6" customFormat="1">
+      <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>7.5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>10.8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>10.1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>15</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>25.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>27.7</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>40.9</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>39.700000000000003</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>46.9</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>45.9</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>73.834180000000003</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="8">
         <v>102.3</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>128.4</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="8">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="R11" s="8">
+        <v>123.7</v>
+      </c>
       <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" s="6" customFormat="1">
-      <c r="A12" s="14" t="s">
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" s="6" customFormat="1">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>0.4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>1.6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>0.8</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>1.4</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>0.7</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>9.6</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>6</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>3</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>8.4</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="8">
         <v>2.1341399999999999</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="8">
         <v>2.8</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <v>5.8</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="R12" s="8">
+        <v>6.5</v>
+      </c>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" s="6" customFormat="1">
-      <c r="A13" s="14" t="s">
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" s="6" customFormat="1">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>85.7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>83.7</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>95.2</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>104.5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>242.2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>273.60000000000002</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>369.8</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>398.5</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="8">
         <v>461.5</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="8">
         <v>465.4</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="8">
         <v>520.4588</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="8">
         <v>637.6</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="8">
         <v>791.7</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>963.5</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="8">
+        <v>951.9</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1007.8</v>
+      </c>
       <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" s="6" customFormat="1">
-      <c r="A14" s="14" t="s">
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" s="6" customFormat="1">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>82.7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>81.8</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>91.6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>101.4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>236.5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>265.2</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>359.6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>388.5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>447.6</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="8">
         <v>444.8</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="8">
         <v>505.09197999999998</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="8">
         <v>615.9</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <v>755.7</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>934.2</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="Q14" s="8">
+        <v>920.3</v>
+      </c>
+      <c r="R14" s="8">
+        <v>967.4</v>
+      </c>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="15"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1238,60 +1290,61 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="13.5">
-      <c r="A16" s="16" t="s">
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="12.75">
+      <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="13.5">
-      <c r="A17" s="16"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" s="12" customFormat="1" ht="12.75">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="9"/>
     </row>
     <row r="34" spans="7:8">
-      <c r="G34" s="12"/>
+      <c r="G34" s="13"/>
     </row>
     <row r="38" spans="7:8">
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="7:8">
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regions/9/vachroba/vachroba.xlsx
+++ b/regions/9/vachroba/vachroba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22215" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -532,7 +532,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -553,8 +553,9 @@
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="S1" s="14"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -575,8 +576,9 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="1:20" s="6" customFormat="1">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>2006</v>
@@ -629,10 +631,13 @@
       <c r="R3" s="4">
         <v>2022</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="4">
+        <v>2023</v>
+      </c>
       <c r="T3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="6" customFormat="1">
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -687,10 +692,13 @@
       <c r="R4" s="8">
         <v>1091.4000000000001</v>
       </c>
-      <c r="S4" s="5"/>
+      <c r="S4" s="8">
+        <v>1124.4000000000001</v>
+      </c>
       <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" s="6" customFormat="1">
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" s="6" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -745,10 +753,13 @@
       <c r="R5" s="8">
         <v>165.5</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="8">
+        <v>170.8</v>
+      </c>
       <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" s="6" customFormat="1">
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -803,10 +814,13 @@
       <c r="R6" s="8">
         <v>7103</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="8">
+        <v>7146</v>
+      </c>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" s="6" customFormat="1">
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -861,10 +875,13 @@
       <c r="R7" s="8">
         <v>4338</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="8">
+        <v>4928</v>
+      </c>
       <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" s="6" customFormat="1">
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" s="6" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -919,10 +936,13 @@
       <c r="R8" s="8">
         <v>670.6</v>
       </c>
-      <c r="S8" s="5"/>
+      <c r="S8" s="8">
+        <v>650.20000000000005</v>
+      </c>
       <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" s="6" customFormat="1">
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" s="6" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -977,10 +997,13 @@
       <c r="R9" s="8">
         <v>41.8</v>
       </c>
-      <c r="S9" s="5"/>
+      <c r="S9" s="8">
+        <v>35</v>
+      </c>
       <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" s="6" customFormat="1">
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" s="6" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -1035,10 +1058,13 @@
       <c r="R10" s="8">
         <v>35.4</v>
       </c>
-      <c r="S10" s="5"/>
+      <c r="S10" s="8">
+        <v>38.9</v>
+      </c>
       <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" s="6" customFormat="1">
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" s="6" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1093,10 +1119,13 @@
       <c r="R11" s="8">
         <v>123.7</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" s="8">
+        <v>135.69999999999999</v>
+      </c>
       <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" s="6" customFormat="1">
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" s="6" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1151,10 +1180,13 @@
       <c r="R12" s="8">
         <v>6.5</v>
       </c>
-      <c r="S12" s="5"/>
+      <c r="S12" s="8">
+        <v>10.7</v>
+      </c>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1">
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1209,10 +1241,13 @@
       <c r="R13" s="8">
         <v>1007.8</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="8">
+        <v>1014</v>
+      </c>
       <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1">
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" s="6" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1267,10 +1302,13 @@
       <c r="R14" s="8">
         <v>967.4</v>
       </c>
-      <c r="S14" s="5"/>
+      <c r="S14" s="8">
+        <v>981.2</v>
+      </c>
       <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1291,8 +1329,9 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-    </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="12.75">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1383,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
